--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate 2/week 1/W1_V4 WorkingWithValidation.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate 2/week 1/W1_V4 WorkingWithValidation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mq20084022\Google Drive\Excel MOOC\003 Course 3 - Intermediate II\01 Week 1\01 Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate 2\week 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC4E832-0AC2-4AF3-A2A8-8FE1551BB598}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9165"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="Departments">Lists!$C$4:$C$9</definedName>
     <definedName name="Origins">Lists!$E$4:$E$12</definedName>
-    <definedName name="Product_Code">Inventory!$A$4:$A$54</definedName>
+    <definedName name="Product_Code">Inventory!$A$4:$A$55</definedName>
     <definedName name="Suppliers">Lists!$A$4:$A$10</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="144">
   <si>
     <t>Location</t>
   </si>
@@ -444,12 +445,6 @@
     <t>Retail Price</t>
   </si>
   <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>Showrom</t>
-  </si>
-  <si>
     <t>Look up Lists</t>
   </si>
   <si>
@@ -463,15 +458,22 @@
   </si>
   <si>
     <t>Italy</t>
+  </si>
+  <si>
+    <t>mate-283aa</t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="00"/>
+    <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -552,7 +554,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -577,6 +579,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -651,51 +654,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory" displayName="Inventory" ref="A3:M54" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory" displayName="Inventory" ref="A3:M55" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" headerRowCellStyle="Heading 3">
   <tableColumns count="13">
-    <tableColumn id="1" name="Product Code"/>
-    <tableColumn id="2" name="Item Description"/>
-    <tableColumn id="3" name="Supplier"/>
-    <tableColumn id="4" name="Department"/>
-    <tableColumn id="5" name="Origin"/>
-    <tableColumn id="6" name="Location"/>
-    <tableColumn id="7" name="Rack" dataDxfId="9"/>
-    <tableColumn id="8" name="In Stock" dataDxfId="8"/>
-    <tableColumn id="9" name="Target Level" dataDxfId="7"/>
-    <tableColumn id="10" name="Reorder Level" dataDxfId="6"/>
-    <tableColumn id="11" name="Last Ordered" dataDxfId="5"/>
-    <tableColumn id="12" name="Unit Cost" dataDxfId="4"/>
-    <tableColumn id="13" name="Retail Price" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product Code"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Item Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Supplier"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Department"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Origin"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Location"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Rack" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="In Stock" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Target Level" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Reorder Level" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Last Ordered" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Unit Cost" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Retail Price" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="OriginsTable" displayName="OriginsTable" ref="E3:E12" totalsRowShown="0" headerRowBorderDxfId="2" headerRowCellStyle="Heading 3">
-  <autoFilter ref="E3:E12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="OriginsTable" displayName="OriginsTable" ref="E3:E12" totalsRowShown="0" headerRowBorderDxfId="2" headerRowCellStyle="Heading 3">
+  <autoFilter ref="E3:E12" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Origins"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Origins"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="SuppliersTable" displayName="SuppliersTable" ref="A3:A10" totalsRowShown="0" headerRowBorderDxfId="1" headerRowCellStyle="Heading 3">
-  <autoFilter ref="A3:A10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="SuppliersTable" displayName="SuppliersTable" ref="A3:A10" totalsRowShown="0" headerRowBorderDxfId="1" headerRowCellStyle="Heading 3">
+  <autoFilter ref="A3:A10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Suppliers"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Suppliers"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="DepartmentsTable" displayName="DepartmentsTable" ref="C3:C9" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 3">
-  <autoFilter ref="C3:C9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DepartmentsTable" displayName="DepartmentsTable" ref="C3:C9" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 3">
+  <autoFilter ref="C3:C9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Departments"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Departments"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -997,29 +1000,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
     <col min="3" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="10" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>134</v>
       </c>
@@ -1036,13 +1041,13 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
@@ -1083,7 +1088,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1125,7 +1130,7 @@
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1167,7 +1172,7 @@
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1184,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
@@ -1209,7 +1214,7 @@
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1251,7 +1256,7 @@
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1293,7 +1298,7 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1312,8 +1317,8 @@
       <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>137</v>
+      <c r="G9" s="9">
+        <v>1</v>
       </c>
       <c r="H9" s="10">
         <v>14</v>
@@ -1335,7 +1340,7 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1377,7 +1382,7 @@
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1397,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="9">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H11" s="10">
         <v>8</v>
@@ -1419,7 +1424,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1461,7 +1466,7 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1503,7 +1508,7 @@
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1545,7 +1550,7 @@
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1587,7 +1592,7 @@
       </c>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1629,7 +1634,7 @@
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1671,7 +1676,7 @@
       </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -1713,7 +1718,7 @@
       </c>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1755,7 +1760,7 @@
       </c>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1797,7 +1802,7 @@
       </c>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1839,7 +1844,7 @@
       </c>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -1881,7 +1886,7 @@
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -1923,7 +1928,7 @@
       </c>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -1965,7 +1970,7 @@
       </c>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2007,7 +2012,7 @@
       </c>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2049,7 +2054,7 @@
       </c>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2091,7 +2096,7 @@
       </c>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2133,7 +2138,7 @@
       </c>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2175,7 +2180,7 @@
       </c>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -2217,7 +2222,7 @@
       </c>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2259,7 +2264,7 @@
       </c>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -2301,7 +2306,7 @@
       </c>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -2343,7 +2348,7 @@
       </c>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -2385,7 +2390,7 @@
       </c>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -2427,7 +2432,7 @@
       </c>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -2469,7 +2474,7 @@
       </c>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -2511,7 +2516,7 @@
       </c>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -2553,7 +2558,7 @@
       </c>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2595,7 +2600,7 @@
       </c>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -2637,7 +2642,7 @@
       </c>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -2679,7 +2684,7 @@
       </c>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -2721,7 +2726,7 @@
       </c>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -2763,7 +2768,7 @@
       </c>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -2805,7 +2810,7 @@
       </c>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -2847,7 +2852,7 @@
       </c>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -2889,7 +2894,7 @@
       </c>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -2931,7 +2936,7 @@
       </c>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -2973,7 +2978,7 @@
       </c>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -3015,7 +3020,7 @@
       </c>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -3057,7 +3062,7 @@
       </c>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -3099,7 +3104,7 @@
       </c>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -3141,7 +3146,7 @@
       </c>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -3183,7 +3188,7 @@
       </c>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -3225,29 +3230,53 @@
       </c>
       <c r="O54" s="1"/>
     </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Rack Number" error="Please enter a rack number between 1 and 9" promptTitle="Rack Number" prompt="Please enter a rack number between 1 and 9" sqref="G4:G54">
+  <dataValidations xWindow="972" yWindow="402" count="10">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="chutiya " error="lawde 1-9 number daal " prompt="lawade ka sarkar hai " sqref="G3:G55" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Code" error="Should be 8 characters_x000a_" sqref="A4:A54">
+    <dataValidation type="custom" errorStyle="warning" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Code" error="Should be 8 characters_x000a_" sqref="A4:A55" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>COUNTIFS(Product_Code,A4)&lt;=1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F55" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Basement,Showroom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E55" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Origins</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C55" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Suppliers</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D55" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Departments</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K54">
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K55" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>TODAY()</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:I12 H14:I19 H21:I54" xr:uid="{2A475CC3-1A10-4048-8D9C-09A36948E208}">
+      <formula1>5</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:I13" xr:uid="{AE0F98FE-E280-4D3F-AF19-02670A70C65F}">
+      <formula1>5</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="kuch bhi " sqref="H20:I20" xr:uid="{073106C9-A57E-4D57-AAC3-9E847ADEC959}">
+      <formula1>5</formula1>
+      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3259,42 +3288,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -3305,7 +3334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3316,7 +3345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -3327,7 +3356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3338,7 +3367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -3349,7 +3378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -3360,7 +3389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -3368,14 +3397,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
